--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:18:08+00:00</t>
+    <t>2023-03-06T16:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T12:50:36+00:00</t>
+    <t>2023-12-04T20:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>A ValueSet resource instance specifies a set of codes drawn from one or more code systems, intended for use in a particular context. Value sets link between [CodeSystem](http://hl7.org/fhir/R4/codesystem.html) definitions and their use in [coded elements](http://hl7.org/fhir/R4/terminologies.html).</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1186,7 +1190,7 @@
   </si>
   <si>
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation. Value set expansions are always considered to be stateless - they are a record of the set of codes in the value set at a point in time under a given set of conditions, and are not subject to ongoing maintenance.
-Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](http://hl7.org/fhir/R4/parameters.html) resource.</t>
+Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](parameters.html) resource.</t>
   </si>
   <si>
     <t>ValueSet.expansion.id</t>
@@ -1537,10 +1541,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1979,10 +1983,10 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1996,10 +2000,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2010,7 +2014,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2019,19 +2023,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2081,13 +2085,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2110,10 +2114,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2124,7 +2128,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2133,16 +2137,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2193,19 +2197,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2222,10 +2226,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2236,28 +2240,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2307,19 +2311,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2336,10 +2340,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2350,7 +2354,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2362,16 +2366,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2397,13 +2401,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2421,19 +2425,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2450,21 +2454,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2476,16 +2480,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2535,22 +2539,22 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2564,14 +2568,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2590,16 +2594,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2649,7 +2653,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2664,7 +2668,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2678,14 +2682,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2704,16 +2708,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2763,7 +2767,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2775,10 +2779,10 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2792,14 +2796,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2812,25 +2816,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2879,7 +2883,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2891,10 +2895,10 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2908,10 +2912,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2922,7 +2926,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2931,22 +2935,22 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2995,28 +2999,28 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -3024,10 +3028,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,22 +3051,22 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -3111,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3123,27 +3127,27 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3154,7 +3158,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3163,19 +3167,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3225,28 +3229,28 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>74</v>
@@ -3254,10 +3258,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3268,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3277,22 +3281,22 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3341,19 +3345,19 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3370,10 +3374,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3384,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3393,19 +3397,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3455,25 +3459,25 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3484,10 +3488,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3495,31 +3499,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3545,13 +3549,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3569,28 +3573,28 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3598,10 +3602,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3612,7 +3616,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3621,22 +3625,22 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3685,28 +3689,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3714,21 +3718,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3737,19 +3741,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3799,28 +3803,28 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3828,10 +3832,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3842,7 +3846,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3851,22 +3855,22 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3915,28 +3919,28 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3944,10 +3948,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3967,19 +3971,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4029,7 +4033,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4041,13 +4045,13 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4058,21 +4062,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4084,16 +4088,16 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4143,25 +4147,25 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4172,10 +4176,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4195,22 +4199,22 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4259,7 +4263,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4271,13 +4275,13 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4288,10 +4292,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4311,19 +4315,19 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4349,13 +4353,13 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -4373,7 +4377,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4385,13 +4389,13 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4402,10 +4406,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4416,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4425,19 +4429,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4487,19 +4491,19 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4516,10 +4520,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4530,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4542,16 +4546,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4601,50 +4605,50 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4656,19 +4660,19 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4717,50 +4721,50 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4772,13 +4776,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4829,19 +4833,19 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4858,10 +4862,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4872,7 +4876,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4884,13 +4888,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4941,13 +4945,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -4956,7 +4960,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4970,14 +4974,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4996,16 +5000,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5055,7 +5059,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5067,10 +5071,10 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5084,14 +5088,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5104,25 +5108,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5171,7 +5175,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5183,10 +5187,10 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5200,10 +5204,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5214,7 +5218,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5223,19 +5227,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5285,19 +5289,19 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5310,7 @@
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5314,10 +5318,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5328,7 +5332,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5337,19 +5341,19 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5399,19 +5403,19 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5428,10 +5432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5439,7 +5443,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5451,19 +5455,19 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5513,10 +5517,10 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5525,10 +5529,10 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5542,10 +5546,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5556,7 +5560,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5568,13 +5572,13 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5625,13 +5629,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5640,7 +5644,7 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5654,10 +5658,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5680,13 +5684,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5725,17 +5729,17 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5747,7 +5751,7 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5764,13 +5768,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>74</v>
@@ -5780,7 +5784,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5792,13 +5796,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5849,7 +5853,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5858,10 +5862,10 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5878,14 +5882,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5898,25 +5902,25 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5965,7 +5969,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5977,10 +5981,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5994,10 +5998,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6008,7 +6012,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6017,19 +6021,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6079,22 +6083,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -6108,10 +6112,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6122,7 +6126,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6131,19 +6135,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6193,22 +6197,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6222,10 +6226,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6248,16 +6252,16 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6307,7 +6311,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6316,13 +6320,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6336,10 +6340,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6350,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6362,13 +6366,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6419,13 +6423,13 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
@@ -6434,7 +6438,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6448,14 +6452,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6474,16 +6478,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6533,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6545,10 +6549,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6562,14 +6566,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6582,25 +6586,25 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6649,7 +6653,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6661,10 +6665,10 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6678,10 +6682,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6689,10 +6693,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6704,16 +6708,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6763,22 +6767,22 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6792,10 +6796,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6806,7 +6810,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6818,16 +6822,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6877,22 +6881,22 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6906,10 +6910,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6932,16 +6936,16 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6991,7 +6995,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7003,7 +7007,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -7020,10 +7024,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7034,7 +7038,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7046,13 +7050,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7103,13 +7107,13 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
@@ -7118,7 +7122,7 @@
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -7132,14 +7136,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7158,16 +7162,16 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7217,7 +7221,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7229,10 +7233,10 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7246,14 +7250,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7266,25 +7270,25 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7333,7 +7337,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7345,10 +7349,10 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -7362,10 +7366,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7376,7 +7380,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7388,16 +7392,16 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7423,13 +7427,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7447,19 +7451,19 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7476,10 +7480,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7490,7 +7494,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7502,16 +7506,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7537,13 +7541,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7561,19 +7565,19 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7590,10 +7594,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7601,10 +7605,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7616,13 +7620,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7673,19 +7677,19 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7702,10 +7706,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7725,19 +7729,19 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7787,7 +7791,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7796,13 +7800,13 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7816,10 +7820,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7830,7 +7834,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7842,13 +7846,13 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7899,13 +7903,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7914,7 +7918,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7928,14 +7932,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7954,16 +7958,16 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8013,7 +8017,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8025,10 +8029,10 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -8042,14 +8046,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8062,25 +8066,25 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8129,7 +8133,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8141,10 +8145,10 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8158,10 +8162,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8169,10 +8173,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8181,16 +8185,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8241,22 +8245,22 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8270,10 +8274,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8281,10 +8285,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8293,19 +8297,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8331,13 +8335,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8355,22 +8359,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8384,10 +8388,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8395,10 +8399,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8407,19 +8411,19 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8469,22 +8473,22 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8498,10 +8502,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8521,19 +8525,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8583,7 +8587,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8592,13 +8596,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8612,10 +8616,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8641,13 +8645,13 @@
         <v>77</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8697,7 +8701,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8706,13 +8710,13 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8726,10 +8730,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8740,7 +8744,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8752,16 +8756,16 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8811,19 +8815,19 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8840,10 +8844,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8854,7 +8858,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8866,13 +8870,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8923,13 +8927,13 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
@@ -8938,7 +8942,7 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8952,14 +8956,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8978,16 +8982,16 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9037,7 +9041,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9049,10 +9053,10 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -9066,14 +9070,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9086,25 +9090,25 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9153,7 +9157,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9165,10 +9169,10 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -9182,10 +9186,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9196,7 +9200,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9208,16 +9212,16 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9267,19 +9271,19 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9296,10 +9300,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9307,10 +9311,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9322,16 +9326,16 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9381,19 +9385,19 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -9410,10 +9414,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9424,7 +9428,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9436,16 +9440,16 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9495,19 +9499,19 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -9524,10 +9528,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9538,7 +9542,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9550,23 +9554,23 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>74</v>
@@ -9611,19 +9615,19 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -9640,10 +9644,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9666,16 +9670,16 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9725,7 +9729,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9737,7 +9741,7 @@
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -9754,10 +9758,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9768,7 +9772,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9780,13 +9784,13 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9837,13 +9841,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
@@ -9852,7 +9856,7 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9866,14 +9870,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9892,16 +9896,16 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9951,7 +9955,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9963,10 +9967,10 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9980,14 +9984,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10000,25 +10004,25 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10067,7 +10071,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10079,10 +10083,10 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -10096,10 +10100,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10107,10 +10111,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10122,16 +10126,16 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10181,19 +10185,19 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -10210,10 +10214,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10224,7 +10228,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10236,13 +10240,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10293,19 +10297,19 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -10322,10 +10326,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10348,13 +10352,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10405,7 +10409,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10417,7 +10421,7 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10434,10 +10438,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10448,7 +10452,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10460,13 +10464,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10517,13 +10521,13 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
@@ -10532,7 +10536,7 @@
         <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
@@ -10546,10 +10550,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10572,13 +10576,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10617,17 +10621,17 @@
         <v>74</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10639,7 +10643,7 @@
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
@@ -10656,13 +10660,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="C79" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>74</v>
@@ -10672,7 +10676,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10684,13 +10688,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10741,7 +10745,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10750,10 +10754,10 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
@@ -10770,14 +10774,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10790,25 +10794,25 @@
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10857,7 +10861,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10869,10 +10873,10 @@
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10886,10 +10890,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10900,7 +10904,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -10912,13 +10916,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10969,19 +10973,19 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -10998,10 +11002,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11012,7 +11016,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>74</v>
@@ -11024,23 +11028,23 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>74</v>
@@ -11085,19 +11089,19 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -11114,10 +11118,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11128,7 +11132,7 @@
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -11140,16 +11144,16 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11199,19 +11203,19 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>74</v>
@@ -11228,10 +11232,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11242,7 +11246,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -11254,16 +11258,16 @@
         <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11313,19 +11317,19 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>74</v>
@@ -11342,10 +11346,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11356,7 +11360,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -11368,13 +11372,13 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11425,19 +11429,19 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
@@ -11454,10 +11458,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11468,7 +11472,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11480,13 +11484,13 @@
         <v>74</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11537,19 +11541,19 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI86" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="AJ86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
@@ -11566,10 +11570,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11595,13 +11599,13 @@
         <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11651,7 +11655,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11663,7 +11667,7 @@
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -11680,10 +11684,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11709,13 +11713,13 @@
         <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11765,7 +11769,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11777,7 +11781,7 @@
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T20:00:03+00:00</t>
+    <t>2023-12-21T16:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T16:09:23+00:00</t>
+    <t>2024-02-07T16:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:56:02+00:00</t>
+    <t>2024-02-10T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:16:02+00:00</t>
+    <t>2024-02-10T19:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:21:32+00:00</t>
+    <t>2024-02-16T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:57:30+00:00</t>
+    <t>2024-05-06T16:08:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T16:08:20+00:00</t>
+    <t>2024-06-05T13:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T08:42:46+00:00</t>
+    <t>2024-07-17T07:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:47:16+00:00</t>
+    <t>2024-10-16T10:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
   </si>
   <si>
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation. Value set expansions are always considered to be stateless - they are a record of the set of codes in the value set at a point in time under a given set of conditions, and are not subject to ongoing maintenance.
-Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](parameters.html) resource.</t>
+Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](http://hl7.org/fhir/R4/parameters.html) resource.</t>
   </si>
   <si>
     <t>ValueSet.expansion.id</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T10:06:48+00:00</t>
+    <t>2024-10-22T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T13:21:16+00:00</t>
+    <t>2024-10-22T15:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T15:01:33+00:00</t>
+    <t>2024-10-22T15:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
